--- a/medicine/Médecine vétérinaire/Dentiste_équin/Dentiste_équin.xlsx
+++ b/medicine/Médecine vétérinaire/Dentiste_équin/Dentiste_équin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dentiste_%C3%A9quin</t>
+          <t>Dentiste_équin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dentiste équin est un professionnel chargé d'entretenir et de soigner la dentition des équidés. Il peut s'agir soit d'un vétérinaire ou d'un technicien dentiste équin.
 Le dentiste équin intervient sur tous les équidés à partir de deux ans, quelle que soit la race, la taille et l’utilisation.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dentiste_%C3%A9quin</t>
+          <t>Dentiste_équin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Tâches</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il a pour tâches essentielles :
 de niveler les surdents sur les mâchoires supérieures et inférieures afin d’assurer un confort dans la bouche des équidés et rétablir un mouvement masticatoire correct ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dentiste_%C3%A9quin</t>
+          <t>Dentiste_équin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,14 +560,16 @@
           <t>Outils</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dentiste équin utilise différents outils :
 le pas d'âne, qui permet de maintenir la bouche de l'équidé ouverte pendant l'intervention ;
 des fraises diamantées rotatives pour niveler les surdents, qui sont branchées sur un moteur électrique avec ou sans fil ;
 des râpes à main pour arrondir les surdents nivelées et corriger les imperfections.
 des forceps, daviers
-En France, le technicien dentaire équin n'a pas le droit de sédater un animal[1]. Il peut seulement réaliser des actes courants alors que le vétérinaire peut réaliser tous les actes relatifs à la bouche du cheval[2].
+En France, le technicien dentaire équin n'a pas le droit de sédater un animal. Il peut seulement réaliser des actes courants alors que le vétérinaire peut réaliser tous les actes relatifs à la bouche du cheval.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dentiste_%C3%A9quin</t>
+          <t>Dentiste_équin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,11 +600,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">France
-En France, le diplôme de vétérinaire n'est pas obligatoire pour pratiquer la dentisterie équine, selon article L243 du code rural.
-Le métier de technicien dentiste équin (TDE) est une profession réglementée depuis 2011. À la suite d'une formation professionnelle continue de 18 mois après le baccalauréat, le futur technicien fait valider ses compétences par la Fédération française des techniciens dentaires équins (FFTDE), qui lui délivre son titre avec le Syndicat national des vétérinaires d'exercice libéral[1],[2].
-Canada
-Au Canada, seuls les vétérinaires inscrits au tableau de l'ordre sont habilités selon la loi sur les médecins vétérinaires et le code de déontologie des médecins vétérinaires à pratiquer la dentisterie. Un dentiste équin non-vétérinaire fait, en ce sens, pratique illégale de la médecine vétérinaire[3],[4].
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le diplôme de vétérinaire n'est pas obligatoire pour pratiquer la dentisterie équine, selon article L243 du code rural.
+Le métier de technicien dentiste équin (TDE) est une profession réglementée depuis 2011. À la suite d'une formation professionnelle continue de 18 mois après le baccalauréat, le futur technicien fait valider ses compétences par la Fédération française des techniciens dentaires équins (FFTDE), qui lui délivre son titre avec le Syndicat national des vétérinaires d'exercice libéral,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dentiste_équin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dentiste_%C3%A9quin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Canada, seuls les vétérinaires inscrits au tableau de l'ordre sont habilités selon la loi sur les médecins vétérinaires et le code de déontologie des médecins vétérinaires à pratiquer la dentisterie. Un dentiste équin non-vétérinaire fait, en ce sens, pratique illégale de la médecine vétérinaire,.
 </t>
         </is>
       </c>
